--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="740">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -159,6 +159,9 @@
     <t>cmip6.atmos.key_properties.overview.model_family</t>
   </si>
   <si>
+    <t>AGCM</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -171,6 +174,12 @@
     <t>cmip6.atmos.key_properties.overview.basic_approximations</t>
   </si>
   <si>
+    <t>Hydrostatic</t>
+  </si>
+  <si>
+    <t>Primitive equations</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
   </si>
   <si>
     <t>cmip6.atmos.key_properties.timestepping.timestep_shortwave_radiative_transfer</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
   <si>
     <t>1.3.3 - Timestep Longwave Radiative Transfer</t>
@@ -2936,10 +2948,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2948,10 +2960,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2960,12 +2972,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -2982,7 +2994,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -2994,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3002,7 +3014,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -3019,7 +3031,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3031,7 +3043,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3039,7 +3051,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3056,7 +3068,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -3068,7 +3080,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3076,7 +3088,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -3093,32 +3105,32 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3127,12 +3139,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3149,19 +3161,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3169,7 +3181,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3186,29 +3198,29 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -3225,29 +3237,29 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3264,7 +3276,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3276,17 +3288,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3303,7 +3315,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3315,20 +3327,20 @@
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3337,12 +3349,12 @@
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -3359,19 +3371,19 @@
     </row>
     <row r="51" spans="2:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1">
@@ -3379,7 +3391,7 @@
     </row>
     <row r="54" spans="2:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -3396,29 +3408,29 @@
     </row>
     <row r="55" spans="2:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -3435,29 +3447,29 @@
     </row>
     <row r="59" spans="2:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -3474,7 +3486,7 @@
     </row>
     <row r="63" spans="2:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -3486,17 +3498,17 @@
         <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -3513,7 +3525,7 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -3525,12 +3537,12 @@
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3589,10 +3601,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3601,10 +3613,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3613,12 +3625,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -3635,7 +3647,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3647,7 +3659,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3655,10 +3667,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3667,12 +3679,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -3689,19 +3701,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3709,10 +3721,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3721,12 +3733,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -3743,7 +3755,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -3755,17 +3767,17 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -3782,19 +3794,19 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -3802,7 +3814,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -3819,7 +3831,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3831,20 +3843,20 @@
         <v>35</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3853,12 +3865,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -3875,7 +3887,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -3887,17 +3899,17 @@
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -3914,7 +3926,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -3923,10 +3935,10 @@
         <v>26</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -3936,7 +3948,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -3953,7 +3965,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -3965,7 +3977,7 @@
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -3973,7 +3985,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -3990,7 +4002,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -4002,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -4010,10 +4022,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4022,12 +4034,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -4044,7 +4056,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -4053,10 +4065,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -4109,10 +4121,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4121,10 +4133,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4133,12 +4145,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4155,7 +4167,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4167,7 +4179,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4175,10 +4187,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4187,12 +4199,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4209,7 +4221,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -4221,12 +4233,12 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4391,11 +4403,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -4412,448 +4426,457 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1">
+      <c r="B32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1">
+      <c r="B44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1">
+      <c r="B49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="B51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="24" customHeight="1">
+      <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24" customHeight="1">
+      <c r="B71" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="24" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1">
-      <c r="B42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1">
-      <c r="B48" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1">
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="B55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1">
-      <c r="B64" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="24" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="24" customHeight="1">
-      <c r="B72" s="13"/>
+      <c r="F72" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24" customHeight="1">
+      <c r="B73" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -4863,16 +4886,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>"Primitive equations,Non-hydrostatic,Anelastic,Boussinesq,Hydrostatic,Quasi-hydrostatic,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>"Present day,Modified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"Related to ice sheets,Related to tectonics,Modified mean,Modified variance if taken into account in model (cf gravity waves)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4896,10 +4919,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4908,10 +4931,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4920,12 +4943,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4942,7 +4965,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4954,7 +4977,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4962,10 +4985,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4974,12 +4997,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4996,7 +5019,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5008,17 +5031,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5035,7 +5058,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5047,17 +5070,17 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -5074,7 +5097,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5086,7 +5109,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -5094,7 +5117,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -5111,19 +5134,19 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -5131,7 +5154,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -5148,7 +5171,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -5160,7 +5183,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -5168,10 +5191,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5180,12 +5203,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -5202,19 +5225,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -5261,10 +5284,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5273,10 +5296,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5285,12 +5308,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -5307,7 +5330,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5319,7 +5342,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5327,7 +5350,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -5344,19 +5367,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5364,7 +5387,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -5381,7 +5404,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -5393,17 +5416,17 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -5420,47 +5443,47 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5469,12 +5492,12 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>30</v>
@@ -5491,7 +5514,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>1</v>
@@ -5503,17 +5526,17 @@
         <v>42</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>30</v>
@@ -5530,7 +5553,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>1</v>
@@ -5542,17 +5565,17 @@
         <v>35</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1">
       <c r="B37" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>30</v>
@@ -5569,7 +5592,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C38" s="11" t="b">
         <v>1</v>
@@ -5581,7 +5604,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
@@ -5589,10 +5612,10 @@
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -5601,12 +5624,12 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>30</v>
@@ -5623,19 +5646,19 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C46" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
@@ -5643,10 +5666,10 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -5655,12 +5678,12 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>30</v>
@@ -5677,29 +5700,29 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C54" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>30</v>
@@ -5716,7 +5739,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C58" s="11" t="b">
         <v>1</v>
@@ -5728,7 +5751,7 @@
         <v>42</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
@@ -5736,10 +5759,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5748,12 +5771,12 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>30</v>
@@ -5770,19 +5793,19 @@
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C66" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
@@ -5790,7 +5813,7 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>30</v>
@@ -5807,29 +5830,29 @@
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C70" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1">
       <c r="B73" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>30</v>
@@ -5846,29 +5869,29 @@
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C74" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>30</v>
@@ -5885,7 +5908,7 @@
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
       <c r="B78" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C78" s="11" t="b">
         <v>1</v>
@@ -5897,7 +5920,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="24" customHeight="1">
@@ -5905,10 +5928,10 @@
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5917,12 +5940,12 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="B83" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="24" customHeight="1">
       <c r="B85" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>30</v>
@@ -5939,19 +5962,19 @@
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C86" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
@@ -5959,7 +5982,7 @@
     </row>
     <row r="89" spans="1:6" ht="24" customHeight="1">
       <c r="B89" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>30</v>
@@ -5976,19 +5999,19 @@
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C90" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
@@ -5996,7 +6019,7 @@
     </row>
     <row r="93" spans="1:6" ht="24" customHeight="1">
       <c r="B93" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>30</v>
@@ -6013,7 +6036,7 @@
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C94" s="11" t="b">
         <v>1</v>
@@ -6025,7 +6048,7 @@
         <v>42</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
@@ -6033,7 +6056,7 @@
     </row>
     <row r="97" spans="2:6" ht="24" customHeight="1">
       <c r="B97" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>30</v>
@@ -6050,29 +6073,29 @@
     </row>
     <row r="98" spans="2:6" ht="24" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C98" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="24" customHeight="1">
       <c r="B99" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>30</v>
@@ -6089,7 +6112,7 @@
     </row>
     <row r="102" spans="2:6" ht="24" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C102" s="11" t="b">
         <v>1</v>
@@ -6101,7 +6124,7 @@
         <v>42</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="24" customHeight="1">
@@ -6172,10 +6195,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6184,10 +6207,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6196,12 +6219,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -6218,52 +6241,52 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6272,12 +6295,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -6294,7 +6317,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -6306,7 +6329,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -6314,7 +6337,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -6331,19 +6354,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -6351,7 +6374,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -6368,7 +6391,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -6380,17 +6403,17 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -6407,19 +6430,19 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -6427,7 +6450,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -6444,7 +6467,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6453,10 +6476,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -6466,10 +6489,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6478,12 +6501,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -6500,19 +6523,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -6520,7 +6543,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -6537,19 +6560,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -6557,7 +6580,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -6574,19 +6597,19 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6594,10 +6617,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6606,12 +6629,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -6628,19 +6651,19 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6648,7 +6671,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -6665,19 +6688,19 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6685,7 +6708,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -6702,19 +6725,19 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -6722,10 +6745,10 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6734,12 +6757,12 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>30</v>
@@ -6756,19 +6779,19 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -6776,7 +6799,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>30</v>
@@ -6793,19 +6816,19 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -6813,7 +6836,7 @@
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>30</v>
@@ -6830,19 +6853,19 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
@@ -6850,10 +6873,10 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6862,12 +6885,12 @@
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
       <c r="B88" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>30</v>
@@ -6884,7 +6907,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -6896,7 +6919,7 @@
         <v>42</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
@@ -6904,10 +6927,10 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6916,12 +6939,12 @@
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
       <c r="B96" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
@@ -6938,19 +6961,19 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
@@ -6958,7 +6981,7 @@
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>30</v>
@@ -6975,19 +6998,19 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -6995,7 +7018,7 @@
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>30</v>
@@ -7012,19 +7035,19 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7032,10 +7055,10 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7044,12 +7067,12 @@
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>30</v>
@@ -7066,19 +7089,19 @@
     </row>
     <row r="115" spans="1:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="24" customHeight="1">
@@ -7086,10 +7109,10 @@
     </row>
     <row r="119" spans="1:6" ht="24" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7098,12 +7121,12 @@
     </row>
     <row r="120" spans="1:6" ht="24" customHeight="1">
       <c r="B120" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>30</v>
@@ -7120,7 +7143,7 @@
     </row>
     <row r="123" spans="1:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -7132,7 +7155,7 @@
         <v>35</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" customHeight="1">
@@ -7140,7 +7163,7 @@
     </row>
     <row r="126" spans="1:6" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>30</v>
@@ -7157,19 +7180,19 @@
     </row>
     <row r="127" spans="1:6" ht="24" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C127" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="24" customHeight="1">
@@ -7177,7 +7200,7 @@
     </row>
     <row r="130" spans="1:6" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>30</v>
@@ -7194,7 +7217,7 @@
     </row>
     <row r="131" spans="1:6" ht="24" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C131" s="11" t="b">
         <v>1</v>
@@ -7206,7 +7229,7 @@
         <v>42</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="24" customHeight="1">
@@ -7214,7 +7237,7 @@
     </row>
     <row r="134" spans="1:6" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>30</v>
@@ -7231,29 +7254,29 @@
     </row>
     <row r="135" spans="1:6" ht="24" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="24" customHeight="1">
       <c r="B136" s="13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="24" customHeight="1">
       <c r="B138" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>30</v>
@@ -7270,7 +7293,7 @@
     </row>
     <row r="139" spans="1:6" ht="24" customHeight="1">
       <c r="B139" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C139" s="11" t="b">
         <v>1</v>
@@ -7279,10 +7302,10 @@
         <v>26</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="24" customHeight="1">
@@ -7292,10 +7315,10 @@
     </row>
     <row r="143" spans="1:6" ht="24" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -7304,12 +7327,12 @@
     </row>
     <row r="144" spans="1:6" ht="24" customHeight="1">
       <c r="B144" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>30</v>
@@ -7326,19 +7349,19 @@
     </row>
     <row r="147" spans="1:6" ht="24" customHeight="1">
       <c r="B147" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C147" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="24" customHeight="1">
@@ -7346,7 +7369,7 @@
     </row>
     <row r="150" spans="1:6" ht="24" customHeight="1">
       <c r="B150" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>30</v>
@@ -7363,19 +7386,19 @@
     </row>
     <row r="151" spans="1:6" ht="24" customHeight="1">
       <c r="B151" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C151" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="24" customHeight="1">
@@ -7383,7 +7406,7 @@
     </row>
     <row r="154" spans="1:6" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>30</v>
@@ -7400,19 +7423,19 @@
     </row>
     <row r="155" spans="1:6" ht="24" customHeight="1">
       <c r="B155" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C155" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="24" customHeight="1">
@@ -7420,10 +7443,10 @@
     </row>
     <row r="159" spans="1:6" ht="24" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -7432,12 +7455,12 @@
     </row>
     <row r="160" spans="1:6" ht="24" customHeight="1">
       <c r="B160" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>30</v>
@@ -7454,19 +7477,19 @@
     </row>
     <row r="163" spans="1:6" ht="24" customHeight="1">
       <c r="B163" s="10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="24" customHeight="1">
@@ -7474,7 +7497,7 @@
     </row>
     <row r="166" spans="1:6" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>30</v>
@@ -7491,19 +7514,19 @@
     </row>
     <row r="167" spans="1:6" ht="24" customHeight="1">
       <c r="B167" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C167" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="24" customHeight="1">
@@ -7511,7 +7534,7 @@
     </row>
     <row r="170" spans="1:6" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>30</v>
@@ -7528,19 +7551,19 @@
     </row>
     <row r="171" spans="1:6" ht="24" customHeight="1">
       <c r="B171" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C171" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="24" customHeight="1">
@@ -7548,10 +7571,10 @@
     </row>
     <row r="175" spans="1:6" ht="24" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -7560,12 +7583,12 @@
     </row>
     <row r="176" spans="1:6" ht="24" customHeight="1">
       <c r="B176" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="24" customHeight="1">
       <c r="B178" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>30</v>
@@ -7582,19 +7605,19 @@
     </row>
     <row r="179" spans="1:6" ht="24" customHeight="1">
       <c r="B179" s="10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="24" customHeight="1">
@@ -7602,7 +7625,7 @@
     </row>
     <row r="182" spans="1:6" ht="24" customHeight="1">
       <c r="B182" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>30</v>
@@ -7619,19 +7642,19 @@
     </row>
     <row r="183" spans="1:6" ht="24" customHeight="1">
       <c r="B183" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="24" customHeight="1">
@@ -7639,7 +7662,7 @@
     </row>
     <row r="186" spans="1:6" ht="24" customHeight="1">
       <c r="B186" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>30</v>
@@ -7656,19 +7679,19 @@
     </row>
     <row r="187" spans="1:6" ht="24" customHeight="1">
       <c r="B187" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C187" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="24" customHeight="1">
@@ -7676,10 +7699,10 @@
     </row>
     <row r="191" spans="1:6" ht="24" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -7688,12 +7711,12 @@
     </row>
     <row r="192" spans="1:6" ht="24" customHeight="1">
       <c r="B192" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>30</v>
@@ -7710,7 +7733,7 @@
     </row>
     <row r="195" spans="1:6" ht="24" customHeight="1">
       <c r="B195" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C195" s="11" t="b">
         <v>1</v>
@@ -7722,7 +7745,7 @@
         <v>42</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="24" customHeight="1">
@@ -7730,10 +7753,10 @@
     </row>
     <row r="199" spans="1:6" ht="24" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -7742,12 +7765,12 @@
     </row>
     <row r="200" spans="1:6" ht="24" customHeight="1">
       <c r="B200" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="24" customHeight="1">
       <c r="B202" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>30</v>
@@ -7764,19 +7787,19 @@
     </row>
     <row r="203" spans="1:6" ht="24" customHeight="1">
       <c r="B203" s="10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C203" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="24" customHeight="1">
@@ -7784,7 +7807,7 @@
     </row>
     <row r="206" spans="1:6" ht="24" customHeight="1">
       <c r="B206" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>30</v>
@@ -7801,19 +7824,19 @@
     </row>
     <row r="207" spans="1:6" ht="24" customHeight="1">
       <c r="B207" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C207" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="24" customHeight="1">
@@ -7821,7 +7844,7 @@
     </row>
     <row r="210" spans="1:6" ht="24" customHeight="1">
       <c r="B210" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>30</v>
@@ -7838,19 +7861,19 @@
     </row>
     <row r="211" spans="1:6" ht="24" customHeight="1">
       <c r="B211" s="10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C211" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="24" customHeight="1">
@@ -7858,10 +7881,10 @@
     </row>
     <row r="215" spans="1:6" ht="24" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -7870,12 +7893,12 @@
     </row>
     <row r="216" spans="1:6" ht="24" customHeight="1">
       <c r="B216" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="24" customHeight="1">
       <c r="B218" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>30</v>
@@ -7892,19 +7915,19 @@
     </row>
     <row r="219" spans="1:6" ht="24" customHeight="1">
       <c r="B219" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C219" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="24" customHeight="1">
@@ -8035,10 +8058,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8047,10 +8070,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8059,12 +8082,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8081,7 +8104,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8093,7 +8116,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8101,10 +8124,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8113,12 +8136,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8135,19 +8158,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -8155,7 +8178,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8172,29 +8195,29 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -8211,7 +8234,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8220,10 +8243,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -8231,7 +8254,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -8248,7 +8271,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8257,10 +8280,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -8270,10 +8293,10 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8282,12 +8305,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -8304,29 +8327,29 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -8343,29 +8366,29 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -8382,29 +8405,29 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -8421,59 +8444,59 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>30</v>
@@ -8490,19 +8513,19 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C57" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
@@ -8510,10 +8533,10 @@
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -8522,12 +8545,12 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>30</v>
@@ -8544,29 +8567,29 @@
     </row>
     <row r="65" spans="2:6" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C65" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>30</v>
@@ -8583,29 +8606,29 @@
     </row>
     <row r="69" spans="2:6" ht="24" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C69" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>30</v>
@@ -8622,7 +8645,7 @@
     </row>
     <row r="73" spans="2:6" ht="24" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C73" s="11" t="b">
         <v>1</v>
@@ -8634,17 +8657,17 @@
         <v>42</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="24" customHeight="1">
       <c r="B74" s="13" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="24" customHeight="1">
       <c r="B76" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>30</v>
@@ -8661,19 +8684,19 @@
     </row>
     <row r="77" spans="2:6" ht="24" customHeight="1">
       <c r="B77" s="10" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="24" customHeight="1">
@@ -8681,7 +8704,7 @@
     </row>
     <row r="80" spans="2:6" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>30</v>
@@ -8698,19 +8721,19 @@
     </row>
     <row r="81" spans="2:6" ht="24" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C81" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
@@ -8772,10 +8795,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8784,10 +8807,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8796,12 +8819,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -8818,7 +8841,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8830,7 +8853,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8838,10 +8861,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8850,12 +8873,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -8872,29 +8895,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -8911,37 +8934,37 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -8950,12 +8973,12 @@
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>30</v>
@@ -8972,29 +8995,29 @@
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>30</v>
@@ -9011,39 +9034,39 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9075,10 +9098,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9087,10 +9110,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9099,12 +9122,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9121,7 +9144,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9133,7 +9156,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9141,7 +9164,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -9158,19 +9181,19 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -9178,7 +9201,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9195,19 +9218,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -9215,7 +9238,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -9232,7 +9255,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -9241,10 +9264,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -9254,7 +9277,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
@@ -9271,29 +9294,29 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -9310,7 +9333,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -9319,10 +9342,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -9330,7 +9353,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -9347,7 +9370,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -9356,10 +9379,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -9367,7 +9390,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -9384,19 +9407,19 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -9404,10 +9427,10 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -9416,12 +9439,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>30</v>
@@ -9438,19 +9461,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -9458,7 +9481,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -9475,19 +9498,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -9495,10 +9518,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -9507,12 +9530,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -9529,7 +9552,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -9541,7 +9564,7 @@
         <v>42</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -9549,7 +9572,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -9566,7 +9589,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -9578,17 +9601,17 @@
         <v>35</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>30</v>
@@ -9605,7 +9628,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -9614,10 +9637,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -9625,7 +9648,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -9642,37 +9665,37 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -9681,12 +9704,12 @@
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1">
       <c r="B73" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>30</v>
@@ -9703,7 +9726,7 @@
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C76" s="11" t="b">
         <v>1</v>
@@ -9715,7 +9738,7 @@
         <v>42</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1">
@@ -9723,7 +9746,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>30</v>
@@ -9740,7 +9763,7 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="10" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C80" s="11" t="b">
         <v>1</v>
@@ -9752,7 +9775,7 @@
         <v>35</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="24" customHeight="1">
@@ -9760,7 +9783,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>30</v>
@@ -9777,7 +9800,7 @@
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
       <c r="B84" s="10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C84" s="11" t="b">
         <v>1</v>
@@ -9786,10 +9809,10 @@
         <v>26</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="24" customHeight="1">
@@ -9797,7 +9820,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>30</v>
@@ -9814,19 +9837,19 @@
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
       <c r="B88" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="24" customHeight="1">
@@ -9894,10 +9917,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9906,10 +9929,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9918,12 +9941,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -9940,7 +9963,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -9952,7 +9975,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -9960,10 +9983,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9972,12 +9995,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -9994,19 +10017,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -10014,7 +10037,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
@@ -10031,7 +10054,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -10043,7 +10066,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
@@ -10051,10 +10074,10 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10063,12 +10086,12 @@
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>30</v>
@@ -10085,7 +10108,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -10097,7 +10120,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -10105,7 +10128,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>30</v>
@@ -10122,7 +10145,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -10131,10 +10154,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -10142,7 +10165,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>30</v>
@@ -10159,7 +10182,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -10168,10 +10191,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -10179,7 +10202,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>30</v>
@@ -10196,7 +10219,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -10205,10 +10228,10 @@
         <v>26</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -10216,10 +10239,10 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -10228,12 +10251,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>30</v>
@@ -10250,7 +10273,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -10259,10 +10282,10 @@
         <v>26</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -10270,7 +10293,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>30</v>
@@ -10287,7 +10310,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -10299,7 +10322,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -10307,7 +10330,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>30</v>
@@ -10324,7 +10347,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -10333,10 +10356,10 @@
         <v>26</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -10344,7 +10367,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>30</v>
@@ -10361,7 +10384,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -10370,10 +10393,10 @@
         <v>26</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -10381,10 +10404,10 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -10393,12 +10416,12 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>30</v>
@@ -10415,7 +10438,7 @@
     </row>
     <row r="67" spans="2:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -10427,7 +10450,7 @@
         <v>42</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="24" customHeight="1">
@@ -10435,7 +10458,7 @@
     </row>
     <row r="70" spans="2:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>30</v>
@@ -10452,19 +10475,19 @@
     </row>
     <row r="71" spans="2:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>GFDL-AM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1104">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -225,7 +225,10 @@
     <t>AGCM</t>
   </si>
   <si>
-    <t>ARCM</t>
+    <t>AGCM: Atmospheric General Circulation Model</t>
+  </si>
+  <si>
+    <t>ARCM: Atmospheric Regional Climate Model</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -408,7 +411,7 @@
     <t>Fixed: present day</t>
   </si>
   <si>
-    <t>Fixed: modified</t>
+    <t>Fixed: modified: provide details of modification below</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -669,13 +672,13 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>Isobaric</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Hybrid sigma-pressure</t>
+    <t>Isobaric: vertical coordinate on pressure levels</t>
+  </si>
+  <si>
+    <t>Sigma: allows vertical coordinate to follow model terrain</t>
+  </si>
+  <si>
+    <t>Hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
   </si>
   <si>
     <t>Hybrid pressure</t>
@@ -1205,25 +1208,25 @@
     <t>Organic</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SOA</t>
-  </si>
-  <si>
-    <t>POM</t>
+    <t>BC: black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA: secondary organic aerosols</t>
+  </si>
+  <si>
+    <t>POM: particulate organic matter</t>
   </si>
   <si>
     <t>Polar stratospheric ice</t>
   </si>
   <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>STS</t>
+    <t>NAT: nitric acid trihydrate</t>
+  </si>
+  <si>
+    <t>NAD: nitric acid dihydrate</t>
+  </si>
+  <si>
+    <t>STS: supercooled ternary solution aerosol particle</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1283,10 +1286,10 @@
     <t>Layer interaction</t>
   </si>
   <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Adaptive</t>
+    <t>Bulk: highly parameterised methods that use bulk expressions</t>
+  </si>
+  <si>
+    <t>Adaptive: exploits spatial and temporal correlations in optical characteristics</t>
   </si>
   <si>
     <t>Multi-stream</t>
@@ -1343,28 +1346,28 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.greenhouse_gas_complexity</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>CFC-11 eq</t>
-  </si>
-  <si>
-    <t>CFC-12 eq</t>
-  </si>
-  <si>
-    <t>HFC-134a eq</t>
-  </si>
-  <si>
-    <t>Explicit ODSs</t>
-  </si>
-  <si>
-    <t>Explicit other fluorinated gases</t>
+    <t>CO2: Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>CH4: Methane</t>
+  </si>
+  <si>
+    <t>N2O: Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>CFC-11 eq: Summarize the effect of non CO2, CH4, N2O and CFC-12 gases with an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>CFC-12 eq: Summarize the radiative effect of the Ozone Depleating Substances, ODSs, with a CFC-12 equivalence concentration</t>
+  </si>
+  <si>
+    <t>HFC-134a eq: Summarize the radiative effect of other fluorinated gases with a HFC-134a equivalence concentration</t>
+  </si>
+  <si>
+    <t>Explicit ODSs: Explicit representation of Ozone Depleting Substances e.g. CFCs, HCFCs and Halons</t>
+  </si>
+  <si>
+    <t>Explicit other fluorinated gases: Explicit representation of other fluorinated gases e.g. HFCs and PFCs</t>
   </si>
   <si>
     <t>O3</t>
@@ -1385,55 +1388,55 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.ODS</t>
   </si>
   <si>
-    <t>CFC-12</t>
-  </si>
-  <si>
-    <t>CFC-11</t>
-  </si>
-  <si>
-    <t>CFC-113</t>
-  </si>
-  <si>
-    <t>CFC-114</t>
-  </si>
-  <si>
-    <t>CFC-115</t>
-  </si>
-  <si>
-    <t>HCFC-22</t>
-  </si>
-  <si>
-    <t>HCFC-141b</t>
-  </si>
-  <si>
-    <t>HCFC-142b</t>
-  </si>
-  <si>
-    <t>Halon-1211</t>
-  </si>
-  <si>
-    <t>Halon-1301</t>
-  </si>
-  <si>
-    <t>Halon-2402</t>
-  </si>
-  <si>
-    <t>Methyl chloroform</t>
-  </si>
-  <si>
-    <t>Carbon tetrachloride</t>
-  </si>
-  <si>
-    <t>Methyl chloride</t>
-  </si>
-  <si>
-    <t>Methylene chloride</t>
-  </si>
-  <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>Methyl bromide</t>
+    <t>CFC-12: CFC</t>
+  </si>
+  <si>
+    <t>CFC-11: CFC</t>
+  </si>
+  <si>
+    <t>CFC-113: CFC</t>
+  </si>
+  <si>
+    <t>CFC-114: CFC</t>
+  </si>
+  <si>
+    <t>CFC-115: CFC</t>
+  </si>
+  <si>
+    <t>HCFC-22: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-141b: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-142b: HCFC</t>
+  </si>
+  <si>
+    <t>Halon-1211: halon</t>
+  </si>
+  <si>
+    <t>Halon-1301: halon</t>
+  </si>
+  <si>
+    <t>Halon-2402: halon</t>
+  </si>
+  <si>
+    <t>Methyl chloroform: CH3CCl3</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride: CCl4</t>
+  </si>
+  <si>
+    <t>Methyl chloride: CH3Cl</t>
+  </si>
+  <si>
+    <t>Methylene chloride: CH2Cl2</t>
+  </si>
+  <si>
+    <t>Chloroform: CHCl3</t>
+  </si>
+  <si>
+    <t>Methyl bromide: Ch3Br</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1448,64 +1451,64 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.other_flourinated_gases</t>
   </si>
   <si>
-    <t>HFC-134a</t>
-  </si>
-  <si>
-    <t>HFC-23</t>
-  </si>
-  <si>
-    <t>HFC-32</t>
-  </si>
-  <si>
-    <t>HFC-125</t>
-  </si>
-  <si>
-    <t>HFC-143a</t>
-  </si>
-  <si>
-    <t>HFC-152a</t>
-  </si>
-  <si>
-    <t>HFC-227ea</t>
-  </si>
-  <si>
-    <t>HFC-236fa</t>
-  </si>
-  <si>
-    <t>HFC-245fa</t>
-  </si>
-  <si>
-    <t>HFC-365mfc</t>
-  </si>
-  <si>
-    <t>HFC-43-10mee</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>C2F6</t>
-  </si>
-  <si>
-    <t>C3F8</t>
-  </si>
-  <si>
-    <t>C4F10</t>
-  </si>
-  <si>
-    <t>C5F12</t>
-  </si>
-  <si>
-    <t>C6F14</t>
-  </si>
-  <si>
-    <t>C7F16</t>
-  </si>
-  <si>
-    <t>C8F18</t>
-  </si>
-  <si>
-    <t>C-C4F8</t>
+    <t>HFC-134a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-23: HFC</t>
+  </si>
+  <si>
+    <t>HFC-32: HFC</t>
+  </si>
+  <si>
+    <t>HFC-125: HFC</t>
+  </si>
+  <si>
+    <t>HFC-143a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-152a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-227ea: HFC</t>
+  </si>
+  <si>
+    <t>HFC-236fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-245fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-365mfc: HFC</t>
+  </si>
+  <si>
+    <t>HFC-43-10mee: HFC</t>
+  </si>
+  <si>
+    <t>CF4: PFC</t>
+  </si>
+  <si>
+    <t>C2F6: PFC</t>
+  </si>
+  <si>
+    <t>C3F8: PFC</t>
+  </si>
+  <si>
+    <t>C4F10: PFC</t>
+  </si>
+  <si>
+    <t>C5F12: PFC</t>
+  </si>
+  <si>
+    <t>C6F14: PFC</t>
+  </si>
+  <si>
+    <t>C7F16: PFC</t>
+  </si>
+  <si>
+    <t>C8F18: PFC</t>
+  </si>
+  <si>
+    <t>C-C4F8: PFC</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1538,16 +1541,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>Bi-modal size distribution</t>
-  </si>
-  <si>
-    <t>Ensemble of ice crystals</t>
-  </si>
-  <si>
-    <t>Mean projected area</t>
-  </si>
-  <si>
-    <t>Ice water path</t>
+    <t>Bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
+  </si>
+  <si>
+    <t>Ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
+  </si>
+  <si>
+    <t>Mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
+  </si>
+  <si>
+    <t>Ice water path: Integrated ice water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>Crystal asymmetry</t>
@@ -1571,16 +1574,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.optical_methods</t>
   </si>
   <si>
-    <t>T-matrix</t>
-  </si>
-  <si>
-    <t>Geometric optics</t>
-  </si>
-  <si>
-    <t>Finite difference time domain (FDTD)</t>
-  </si>
-  <si>
-    <t>Mie theory</t>
+    <t>T-matrix: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Geometric optics: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Finite difference time domain (FDTD): For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Mie theory: For spherical particles</t>
   </si>
   <si>
     <t>Anomalous diffraction approximation</t>
@@ -1604,7 +1607,7 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>Cloud droplet number concentration</t>
+    <t>Cloud droplet number concentration: CDNC</t>
   </si>
   <si>
     <t>Effective cloud droplet radii</t>
@@ -1613,7 +1616,7 @@
     <t>Droplet size distribution</t>
   </si>
   <si>
-    <t>Liquid water path</t>
+    <t>Liquid water path: Integrated liquid water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1646,10 +1649,10 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_inhomogeneity.cloud_inhomogeneity</t>
   </si>
   <si>
-    <t>Monte Carlo Independent Column Approximation</t>
-  </si>
-  <si>
-    <t>Triplecloud</t>
+    <t>Monte Carlo Independent Column Approximation: McICA</t>
+  </si>
+  <si>
+    <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
   </si>
   <si>
     <t>Analytic</t>
@@ -1688,7 +1691,7 @@
     <t>Aspect ratio</t>
   </si>
   <si>
-    <t>Mixing state</t>
+    <t>Mixing state: For shortwave radiative interaction</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -1937,7 +1940,7 @@
     <t>Holtslag-Boville</t>
   </si>
   <si>
-    <t>EDMF</t>
+    <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
   </si>
   <si>
     <t>5.2.1.2 *</t>
@@ -1967,7 +1970,7 @@
     <t>Monin-Obukhov similarity</t>
   </si>
   <si>
-    <t>Coastal Buddy Scheme</t>
+    <t>Coastal Buddy Scheme: separate components for coastal near surface winds over ocean and land</t>
   </si>
   <si>
     <t>Coupled with convection</t>
@@ -1976,7 +1979,7 @@
     <t>Coupled with gravity waves</t>
   </si>
   <si>
-    <t>Depth capped at cloud base</t>
+    <t>Depth capped at cloud base: boundary layer capped at cloud base when convection is diagnosed</t>
   </si>
   <si>
     <t>5.2.1.3 *</t>
@@ -2039,7 +2042,7 @@
     <t>Adjustment</t>
   </si>
   <si>
-    <t>Plume ensemble</t>
+    <t>Plume ensemble: Zhang-McFarlane</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2054,13 +2057,19 @@
     <t>CAPE</t>
   </si>
   <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>CAPE/WFN based</t>
-  </si>
-  <si>
-    <t>TKE/CIN based</t>
+    <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
+  </si>
+  <si>
+    <t>Bulk: A bulk mass flux scheme is used</t>
+  </si>
+  <si>
+    <t>Ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
+  </si>
+  <si>
+    <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
+  </si>
+  <si>
+    <t>TKE/CIN based: TKE-Convective Inhibition: Based on the quasi-equilibrium of the boundary layer</t>
   </si>
   <si>
     <t>5.3.1.4 *</t>
@@ -2174,6 +2183,9 @@
     <t>Included in boundary layer turbulence</t>
   </si>
   <si>
+    <t>Separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
+  </si>
+  <si>
     <t>5.4.1.4 *</t>
   </si>
   <si>
@@ -2408,7 +2420,10 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>Ice crystal number concentration</t>
+    <t>Cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
+  </si>
+  <si>
+    <t>Ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2468,7 +2483,7 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>Maximum-random</t>
+    <t>Maximum-random: combination of maximum and random overlap between clouds</t>
   </si>
   <si>
     <t>Exponential</t>
@@ -2921,7 +2936,7 @@
     <t>Effect on lifting</t>
   </si>
   <si>
-    <t>Enhanced topography</t>
+    <t>Enhanced topography: To enhance the generation of long waves in the atmosphere</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -3146,13 +3161,13 @@
     <t>cmip6.atmos.natural_forcing.solar_pathways.pathways</t>
   </si>
   <si>
-    <t>SW radiation</t>
-  </si>
-  <si>
-    <t>Precipitating energetic particles</t>
-  </si>
-  <si>
-    <t>Cosmic rays</t>
+    <t>SW radiation: Shortwave solar spectral irradiance.</t>
+  </si>
+  <si>
+    <t>Precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes</t>
+  </si>
+  <si>
+    <t>Cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3984,20 +3999,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4008,10 +4023,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4019,7 +4034,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4030,10 +4045,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4046,23 +4061,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4070,10 +4085,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4084,24 +4099,24 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4109,43 +4124,43 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4153,41 +4168,41 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4195,21 +4210,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4217,21 +4232,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4239,34 +4254,34 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4274,10 +4289,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -4285,41 +4300,41 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -4327,21 +4342,21 @@
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -4349,23 +4364,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4373,30 +4388,30 @@
         <v>62</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4404,10 +4419,10 @@
         <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4418,13 +4433,13 @@
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4487,20 +4502,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4511,10 +4526,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4522,7 +4537,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4533,10 +4548,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4546,15 +4561,15 @@
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4562,30 +4577,30 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4593,30 +4608,30 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4624,10 +4639,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4637,37 +4652,37 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4678,10 +4693,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4689,10 +4704,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4700,10 +4715,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4713,33 +4728,33 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -4747,10 +4762,10 @@
         <v>62</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -4760,24 +4775,24 @@
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
       <c r="B42" s="11" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="AA42" s="6" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -4785,35 +4800,35 @@
         <v>62</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="24" customHeight="1">
@@ -4821,51 +4836,51 @@
         <v>62</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>45</v>
@@ -4876,10 +4891,10 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
@@ -4887,10 +4902,10 @@
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="24" customHeight="1">
@@ -4898,10 +4913,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
@@ -4911,27 +4926,27 @@
     </row>
     <row r="63" spans="1:32" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -4939,10 +4954,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -4952,21 +4967,21 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
@@ -4974,32 +4989,32 @@
         <v>62</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -5007,33 +5022,33 @@
         <v>62</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="AF76" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5092,20 +5107,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5116,10 +5131,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5127,7 +5142,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5138,10 +5153,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5154,23 +5169,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5178,10 +5193,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5192,37 +5207,37 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -5230,40 +5245,40 @@
         <v>62</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5271,10 +5286,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5282,36 +5297,36 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
@@ -5319,40 +5334,40 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5362,10 +5377,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5373,10 +5388,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5384,10 +5399,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5395,54 +5410,54 @@
         <v>62</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5452,23 +5467,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5476,10 +5491,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5492,10 +5507,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5503,24 +5518,24 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5781,21 +5796,21 @@
         <v>65</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -5803,10 +5818,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -5816,75 +5831,75 @@
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AF25" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AF26" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -5892,10 +5907,10 @@
         <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -5903,10 +5918,10 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5914,10 +5929,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -5925,10 +5940,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +5951,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -5947,21 +5962,21 @@
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -5969,21 +5984,21 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -5991,34 +6006,34 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -6028,21 +6043,21 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -6050,21 +6065,21 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
@@ -6072,23 +6087,23 @@
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
@@ -6096,32 +6111,32 @@
         <v>62</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
@@ -6129,10 +6144,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
@@ -6143,27 +6158,27 @@
     <row r="79" spans="1:31" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -6171,10 +6186,10 @@
         <v>46</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -6182,23 +6197,23 @@
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -6206,10 +6221,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -6222,10 +6237,10 @@
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -6233,10 +6248,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -6249,10 +6264,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -6260,10 +6275,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -6276,10 +6291,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -6287,10 +6302,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6354,20 +6369,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6378,10 +6393,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6389,7 +6404,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6400,10 +6415,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6416,23 +6431,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -6440,32 +6455,32 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="AC19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -6473,35 +6488,35 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="AC23" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
@@ -6509,33 +6524,33 @@
         <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -6543,33 +6558,33 @@
         <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -6577,49 +6592,49 @@
         <v>62</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -6627,10 +6642,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
@@ -6641,22 +6656,22 @@
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE44" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6700,20 +6715,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6724,10 +6739,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -6735,7 +6750,7 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6746,10 +6761,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
@@ -6762,10 +6777,10 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
@@ -6773,53 +6788,53 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="AC15" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
@@ -6827,10 +6842,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
@@ -6840,287 +6855,287 @@
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK20" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB20" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK20" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL20" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD21" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK21" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL21" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH22" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AI22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK22" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB22" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL22" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG23" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AH23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL23" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL24" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA25" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AB25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK25" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AL25" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
@@ -7128,32 +7143,32 @@
         <v>62</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -7161,23 +7176,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -7185,10 +7200,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -7196,23 +7211,23 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -7220,43 +7235,43 @@
         <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="11"/>
       <c r="AA49" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7264,23 +7279,23 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7288,43 +7303,43 @@
         <v>62</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="B61" s="11"/>
       <c r="AA61" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="24" customHeight="1">
@@ -7332,39 +7347,39 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="24" customHeight="1">
       <c r="B69" s="11"/>
       <c r="AA69" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AD69" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AE69" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF69" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="24" customHeight="1">
@@ -7372,10 +7387,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="24" customHeight="1">
@@ -7385,54 +7400,54 @@
     </row>
     <row r="74" spans="1:39" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA74" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG74" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH74" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AB74" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC74" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD74" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE74" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF74" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG74" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH74" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="AI74" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ74" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK74" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL74" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:39" ht="24" customHeight="1">
@@ -7440,10 +7455,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:39" ht="24" customHeight="1">
@@ -7453,24 +7468,24 @@
     </row>
     <row r="79" spans="1:39" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7478,43 +7493,43 @@
         <v>62</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
@@ -7522,33 +7537,33 @@
         <v>62</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
@@ -7556,10 +7571,10 @@
         <v>62</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
@@ -7570,30 +7585,30 @@
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11"/>
       <c r="AA96" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF96" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7601,36 +7616,36 @@
         <v>62</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
       <c r="B100" s="11"/>
       <c r="AA100" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB100" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC100" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD100" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE100" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
@@ -7638,10 +7653,10 @@
         <v>62</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -7651,36 +7666,36 @@
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA105" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB105" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC105" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD105" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE105" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF105" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="AB105" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC105" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD105" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE105" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF105" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AG105" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -7688,19 +7703,19 @@
         <v>62</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="B109" s="11"/>
       <c r="AA109" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AB109" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7783,20 +7798,20 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7807,10 +7822,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7818,7 +7833,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7829,10 +7844,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7842,15 +7857,15 @@
     </row>
     <row r="11" spans="1:40" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7858,10 +7873,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7871,255 +7886,255 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC17" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="AD17" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AA18" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="AF18" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="AC19" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>45</v>
@@ -8130,10 +8145,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="24" customHeight="1">
@@ -8141,10 +8156,10 @@
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
@@ -8152,35 +8167,35 @@
         <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -8188,10 +8203,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -8202,41 +8217,41 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -8246,10 +8261,10 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
@@ -8257,10 +8272,10 @@
         <v>62</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -8271,34 +8286,34 @@
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:44" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:44" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:44" ht="24" customHeight="1">
@@ -8306,10 +8321,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:44" ht="24" customHeight="1">
@@ -8320,45 +8335,45 @@
     <row r="55" spans="1:44" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:44" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="24" customHeight="1">
@@ -8366,10 +8381,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="24" customHeight="1">
@@ -8380,66 +8395,66 @@
     <row r="60" spans="1:44" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ60" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL60" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM60" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN60" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO60" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AP60" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AQ60" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AR60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:44" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="24" customHeight="1">
@@ -8447,10 +8462,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:44" ht="24" customHeight="1">
@@ -8461,97 +8476,97 @@
     <row r="65" spans="1:50" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AE65" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF65" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AI65" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ65" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK65" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL65" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN65" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO65" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AP65" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AQ65" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AR65" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AS65" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AT65" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AU65" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AV65" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AW65" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AX65" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="24" customHeight="1">
@@ -8559,10 +8574,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="24" customHeight="1">
@@ -8573,36 +8588,36 @@
     <row r="74" spans="1:50" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG74" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="24" customHeight="1">
@@ -8610,10 +8625,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="24" customHeight="1">
@@ -8624,43 +8639,43 @@
     <row r="79" spans="1:50" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE79" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
@@ -8668,10 +8683,10 @@
         <v>62</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8682,27 +8697,27 @@
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
@@ -8710,10 +8725,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
@@ -8724,34 +8739,34 @@
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
@@ -8759,46 +8774,46 @@
         <v>62</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="11"/>
       <c r="AA101" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AB101" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="B105" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -8806,10 +8821,10 @@
         <v>62</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -8820,33 +8835,33 @@
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AE110" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF110" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG110" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="24" customHeight="1">
@@ -8854,10 +8869,10 @@
         <v>62</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
@@ -8868,40 +8883,40 @@
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC115" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD115" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE115" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF115" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="24" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
       <c r="B119" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>45</v>
@@ -8912,10 +8927,10 @@
         <v>46</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
@@ -8923,10 +8938,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -8934,33 +8949,33 @@
         <v>62</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD127" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:32" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="24" customHeight="1">
@@ -8968,10 +8983,10 @@
         <v>62</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="24" customHeight="1">
@@ -8981,44 +8996,44 @@
     </row>
     <row r="132" spans="1:32" ht="24" customHeight="1">
       <c r="B132" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA132" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="AA132" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="AB132" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AC132" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD132" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE132" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF132" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:32" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136" spans="1:32" ht="24" customHeight="1">
@@ -9028,10 +9043,10 @@
     </row>
     <row r="138" spans="1:32" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:32" ht="24" customHeight="1">
@@ -9039,10 +9054,10 @@
         <v>62</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:32" ht="24" customHeight="1">
@@ -9053,34 +9068,34 @@
     <row r="141" spans="1:32" ht="24" customHeight="1">
       <c r="B141" s="11"/>
       <c r="AA141" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AB141" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:32" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:50" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
@@ -9088,10 +9103,10 @@
         <v>62</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -9102,45 +9117,45 @@
     <row r="150" spans="1:50" ht="24" customHeight="1">
       <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH150" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI150" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ150" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK150" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:50" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
@@ -9148,10 +9163,10 @@
         <v>62</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -9162,66 +9177,66 @@
     <row r="155" spans="1:50" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AB155" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC155" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AD155" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AE155" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF155" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG155" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AI155" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ155" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK155" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL155" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN155" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO155" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AP155" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AQ155" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AR155" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:50" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:50" ht="24" customHeight="1">
@@ -9229,10 +9244,10 @@
         <v>62</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
@@ -9243,97 +9258,97 @@
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="11"/>
       <c r="AA160" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB160" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC160" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AD160" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AE160" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF160" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG160" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH160" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AI160" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ160" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK160" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL160" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN160" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO160" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AP160" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AQ160" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AR160" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AS160" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AT160" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AU160" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AV160" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AW160" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AX160" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
       <c r="A163" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:34" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
@@ -9341,10 +9356,10 @@
         <v>62</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -9355,36 +9370,36 @@
     <row r="169" spans="1:34" ht="24" customHeight="1">
       <c r="B169" s="11"/>
       <c r="AA169" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AB169" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AC169" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AD169" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AE169" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF169" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG169" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH169" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:34" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="1:34" ht="24" customHeight="1">
@@ -9392,10 +9407,10 @@
         <v>62</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
@@ -9406,43 +9421,43 @@
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="11"/>
       <c r="AA174" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD174" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE174" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF174" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
@@ -9450,10 +9465,10 @@
         <v>62</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -9464,27 +9479,27 @@
     <row r="183" spans="1:31" ht="24" customHeight="1">
       <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:31" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="24" customHeight="1">
@@ -9492,10 +9507,10 @@
         <v>62</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
@@ -9506,34 +9521,34 @@
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="11"/>
       <c r="AA188" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB188" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC188" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
       <c r="A191" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="A194" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
@@ -9541,46 +9556,46 @@
         <v>62</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="11"/>
       <c r="AA196" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AB196" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AD196" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -9588,10 +9603,10 @@
         <v>62</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9602,33 +9617,33 @@
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11"/>
       <c r="AA205" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG205" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -9636,10 +9651,10 @@
         <v>62</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209" spans="2:32" ht="24" customHeight="1">
@@ -9650,22 +9665,22 @@
     <row r="210" spans="2:32" ht="24" customHeight="1">
       <c r="B210" s="11"/>
       <c r="AA210" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB210" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC210" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AD210" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE210" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF210" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9790,20 +9805,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9814,10 +9829,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9825,7 +9840,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -9836,10 +9851,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9852,23 +9867,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="24" customHeight="1">
@@ -9876,33 +9891,33 @@
         <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="24" customHeight="1">
@@ -9910,10 +9925,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -9923,59 +9938,59 @@
     </row>
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AA24" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD24" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>640</v>
-      </c>
       <c r="AE24" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -9983,21 +9998,21 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -10007,23 +10022,23 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -10031,23 +10046,23 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -10055,10 +10070,10 @@
         <v>62</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -10068,27 +10083,27 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
@@ -10096,10 +10111,10 @@
         <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -10109,33 +10124,33 @@
     </row>
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>418</v>
+        <v>677</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -10143,10 +10158,10 @@
         <v>62</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -10156,255 +10171,255 @@
     </row>
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ55" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB56" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="AA56" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="AC56" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ56" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE57" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ57" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:36" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA58" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="AA58" s="6" t="s">
-        <v>683</v>
-      </c>
       <c r="AB58" s="6" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE58" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI58" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ58" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE59" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="AA59" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC59" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="AD59" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE59" s="6" t="s">
-        <v>686</v>
-      </c>
       <c r="AF59" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH59" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI59" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ59" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:36" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC60" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="AA60" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB60" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC60" s="6" t="s">
-        <v>684</v>
-      </c>
       <c r="AD60" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:36" ht="24" customHeight="1">
       <c r="B61" s="11" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AF61" s="6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AJ61" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:36" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="24" customHeight="1">
@@ -10412,10 +10427,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -10426,37 +10441,37 @@
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11"/>
       <c r="AA66" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -10464,23 +10479,23 @@
         <v>46</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -10488,10 +10503,10 @@
         <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -10501,24 +10516,24 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -10526,35 +10541,35 @@
         <v>62</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -10562,10 +10577,10 @@
         <v>62</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -10576,30 +10591,30 @@
     <row r="88" spans="1:32" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AF88" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -10607,10 +10622,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -10621,16 +10636,16 @@
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -10710,20 +10725,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10734,10 +10749,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -10745,7 +10760,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -10756,10 +10771,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -10772,23 +10787,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -10796,23 +10811,23 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -10820,10 +10835,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -10833,63 +10848,63 @@
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10897,23 +10912,23 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10921,10 +10936,10 @@
         <v>62</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -10934,130 +10949,130 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB41" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="AA41" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="AC41" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -11101,20 +11116,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -11125,10 +11140,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -11136,7 +11151,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -11147,10 +11162,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -11163,10 +11178,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -11174,10 +11189,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -11188,21 +11203,21 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -11210,23 +11225,23 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -11234,10 +11249,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -11247,27 +11262,27 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
@@ -11275,10 +11290,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -11289,36 +11304,36 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>525</v>
+        <v>797</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -11326,10 +11341,10 @@
         <v>62</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -11340,43 +11355,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -11384,36 +11399,36 @@
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="AE43" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -11421,10 +11436,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -11432,23 +11447,23 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
@@ -11456,27 +11471,27 @@
         <v>62</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -11484,34 +11499,34 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -11519,10 +11534,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -11530,10 +11545,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -11543,51 +11558,51 @@
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="B69" s="11" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="B73" s="13" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -11595,27 +11610,27 @@
         <v>62</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -11623,10 +11638,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="24" customHeight="1">
@@ -11634,21 +11649,21 @@
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="24" customHeight="1">
@@ -11656,10 +11671,10 @@
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -11667,10 +11682,10 @@
         <v>62</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="24" customHeight="1">
@@ -11681,13 +11696,13 @@
     <row r="90" spans="1:29" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
